--- a/レポート用アンケート調査.xlsx
+++ b/レポート用アンケート調査.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Takashi Namatame\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yut0takagi/Develop/MR_DataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC20563-E3CF-A643-8788-1DFE9E56254B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15708" windowHeight="5148"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="説明" sheetId="2" r:id="rId1"/>
@@ -319,8 +320,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,66 +689,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -759,16 +760,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CT154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="42" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="52" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="62" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="77" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="92" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:98" ht="19" thickBot="1">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -794,7 +815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:98" s="3" customFormat="1" ht="132.6" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:98" s="3" customFormat="1" ht="141" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1074,7 +1095,7 @@
       <c r="CS2" s="4"/>
       <c r="CT2" s="4"/>
     </row>
-    <row r="3" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:98" ht="19" thickBot="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1354,7 +1375,7 @@
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
     </row>
-    <row r="4" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:98" ht="19" thickBot="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1634,7 +1655,7 @@
       <c r="CS4" s="1"/>
       <c r="CT4" s="1"/>
     </row>
-    <row r="5" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:98" ht="19" thickBot="1">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1914,7 +1935,7 @@
       <c r="CS5" s="1"/>
       <c r="CT5" s="1"/>
     </row>
-    <row r="6" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:98" ht="19" thickBot="1">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2194,7 +2215,7 @@
       <c r="CS6" s="1"/>
       <c r="CT6" s="1"/>
     </row>
-    <row r="7" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:98" ht="19" thickBot="1">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2474,7 +2495,7 @@
       <c r="CS7" s="1"/>
       <c r="CT7" s="1"/>
     </row>
-    <row r="8" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:98" ht="19" thickBot="1">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2754,7 +2775,7 @@
       <c r="CS8" s="1"/>
       <c r="CT8" s="1"/>
     </row>
-    <row r="9" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:98" ht="19" thickBot="1">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3034,7 +3055,7 @@
       <c r="CS9" s="1"/>
       <c r="CT9" s="1"/>
     </row>
-    <row r="10" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:98" ht="19" thickBot="1">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3314,7 +3335,7 @@
       <c r="CS10" s="1"/>
       <c r="CT10" s="1"/>
     </row>
-    <row r="11" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:98" ht="19" thickBot="1">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3594,7 +3615,7 @@
       <c r="CS11" s="1"/>
       <c r="CT11" s="1"/>
     </row>
-    <row r="12" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:98" ht="19" thickBot="1">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3874,7 +3895,7 @@
       <c r="CS12" s="1"/>
       <c r="CT12" s="1"/>
     </row>
-    <row r="13" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:98" ht="19" thickBot="1">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4154,7 +4175,7 @@
       <c r="CS13" s="1"/>
       <c r="CT13" s="1"/>
     </row>
-    <row r="14" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:98" ht="19" thickBot="1">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4434,7 +4455,7 @@
       <c r="CS14" s="1"/>
       <c r="CT14" s="1"/>
     </row>
-    <row r="15" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:98" ht="19" thickBot="1">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4714,7 +4735,7 @@
       <c r="CS15" s="1"/>
       <c r="CT15" s="1"/>
     </row>
-    <row r="16" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:98" ht="19" thickBot="1">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4994,7 +5015,7 @@
       <c r="CS16" s="1"/>
       <c r="CT16" s="1"/>
     </row>
-    <row r="17" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:98" ht="19" thickBot="1">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5274,7 +5295,7 @@
       <c r="CS17" s="1"/>
       <c r="CT17" s="1"/>
     </row>
-    <row r="18" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:98" ht="19" thickBot="1">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5554,7 +5575,7 @@
       <c r="CS18" s="1"/>
       <c r="CT18" s="1"/>
     </row>
-    <row r="19" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:98" ht="19" thickBot="1">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5834,7 +5855,7 @@
       <c r="CS19" s="1"/>
       <c r="CT19" s="1"/>
     </row>
-    <row r="20" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:98" ht="19" thickBot="1">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6114,7 +6135,7 @@
       <c r="CS20" s="1"/>
       <c r="CT20" s="1"/>
     </row>
-    <row r="21" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:98" ht="19" thickBot="1">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6394,7 +6415,7 @@
       <c r="CS21" s="1"/>
       <c r="CT21" s="1"/>
     </row>
-    <row r="22" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:98" ht="19" thickBot="1">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6674,7 +6695,7 @@
       <c r="CS22" s="1"/>
       <c r="CT22" s="1"/>
     </row>
-    <row r="23" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:98" ht="19" thickBot="1">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6954,7 +6975,7 @@
       <c r="CS23" s="1"/>
       <c r="CT23" s="1"/>
     </row>
-    <row r="24" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:98" ht="19" thickBot="1">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7234,7 +7255,7 @@
       <c r="CS24" s="1"/>
       <c r="CT24" s="1"/>
     </row>
-    <row r="25" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:98" ht="19" thickBot="1">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7514,7 +7535,7 @@
       <c r="CS25" s="1"/>
       <c r="CT25" s="1"/>
     </row>
-    <row r="26" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:98" ht="19" thickBot="1">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7794,7 +7815,7 @@
       <c r="CS26" s="1"/>
       <c r="CT26" s="1"/>
     </row>
-    <row r="27" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:98" ht="19" thickBot="1">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8074,7 +8095,7 @@
       <c r="CS27" s="1"/>
       <c r="CT27" s="1"/>
     </row>
-    <row r="28" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:98" ht="19" thickBot="1">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8354,7 +8375,7 @@
       <c r="CS28" s="1"/>
       <c r="CT28" s="1"/>
     </row>
-    <row r="29" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:98" ht="19" thickBot="1">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8634,7 +8655,7 @@
       <c r="CS29" s="1"/>
       <c r="CT29" s="1"/>
     </row>
-    <row r="30" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:98" ht="19" thickBot="1">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8914,7 +8935,7 @@
       <c r="CS30" s="1"/>
       <c r="CT30" s="1"/>
     </row>
-    <row r="31" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:98" ht="19" thickBot="1">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9194,7 +9215,7 @@
       <c r="CS31" s="1"/>
       <c r="CT31" s="1"/>
     </row>
-    <row r="32" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:98" ht="19" thickBot="1">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9474,7 +9495,7 @@
       <c r="CS32" s="1"/>
       <c r="CT32" s="1"/>
     </row>
-    <row r="33" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:98" ht="19" thickBot="1">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9754,7 +9775,7 @@
       <c r="CS33" s="1"/>
       <c r="CT33" s="1"/>
     </row>
-    <row r="34" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:98" ht="19" thickBot="1">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10034,7 +10055,7 @@
       <c r="CS34" s="1"/>
       <c r="CT34" s="1"/>
     </row>
-    <row r="35" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:98" ht="19" thickBot="1">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10314,7 +10335,7 @@
       <c r="CS35" s="1"/>
       <c r="CT35" s="1"/>
     </row>
-    <row r="36" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:98" ht="19" thickBot="1">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10594,7 +10615,7 @@
       <c r="CS36" s="1"/>
       <c r="CT36" s="1"/>
     </row>
-    <row r="37" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:98" ht="19" thickBot="1">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10874,7 +10895,7 @@
       <c r="CS37" s="1"/>
       <c r="CT37" s="1"/>
     </row>
-    <row r="38" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:98" ht="19" thickBot="1">
       <c r="A38">
         <v>36</v>
       </c>
@@ -11154,7 +11175,7 @@
       <c r="CS38" s="1"/>
       <c r="CT38" s="1"/>
     </row>
-    <row r="39" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:98" ht="19" thickBot="1">
       <c r="A39">
         <v>37</v>
       </c>
@@ -11434,7 +11455,7 @@
       <c r="CS39" s="1"/>
       <c r="CT39" s="1"/>
     </row>
-    <row r="40" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:98" ht="19" thickBot="1">
       <c r="A40">
         <v>38</v>
       </c>
@@ -11714,7 +11735,7 @@
       <c r="CS40" s="1"/>
       <c r="CT40" s="1"/>
     </row>
-    <row r="41" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:98" ht="19" thickBot="1">
       <c r="A41">
         <v>39</v>
       </c>
@@ -11994,7 +12015,7 @@
       <c r="CS41" s="1"/>
       <c r="CT41" s="1"/>
     </row>
-    <row r="42" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:98" ht="19" thickBot="1">
       <c r="A42">
         <v>40</v>
       </c>
@@ -12274,7 +12295,7 @@
       <c r="CS42" s="1"/>
       <c r="CT42" s="1"/>
     </row>
-    <row r="43" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:98" ht="19" thickBot="1">
       <c r="A43">
         <v>41</v>
       </c>
@@ -12554,7 +12575,7 @@
       <c r="CS43" s="1"/>
       <c r="CT43" s="1"/>
     </row>
-    <row r="44" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:98" ht="19" thickBot="1">
       <c r="A44">
         <v>42</v>
       </c>
@@ -12834,7 +12855,7 @@
       <c r="CS44" s="1"/>
       <c r="CT44" s="1"/>
     </row>
-    <row r="45" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:98" ht="19" thickBot="1">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13114,7 +13135,7 @@
       <c r="CS45" s="1"/>
       <c r="CT45" s="1"/>
     </row>
-    <row r="46" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:98" ht="19" thickBot="1">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13394,7 +13415,7 @@
       <c r="CS46" s="1"/>
       <c r="CT46" s="1"/>
     </row>
-    <row r="47" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:98" ht="19" thickBot="1">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13674,7 +13695,7 @@
       <c r="CS47" s="1"/>
       <c r="CT47" s="1"/>
     </row>
-    <row r="48" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:98" ht="19" thickBot="1">
       <c r="A48">
         <v>46</v>
       </c>
@@ -13954,7 +13975,7 @@
       <c r="CS48" s="1"/>
       <c r="CT48" s="1"/>
     </row>
-    <row r="49" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:98" ht="19" thickBot="1">
       <c r="A49">
         <v>47</v>
       </c>
@@ -14234,7 +14255,7 @@
       <c r="CS49" s="1"/>
       <c r="CT49" s="1"/>
     </row>
-    <row r="50" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:98" ht="19" thickBot="1">
       <c r="A50">
         <v>48</v>
       </c>
@@ -14514,7 +14535,7 @@
       <c r="CS50" s="1"/>
       <c r="CT50" s="1"/>
     </row>
-    <row r="51" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:98" ht="19" thickBot="1">
       <c r="A51">
         <v>49</v>
       </c>
@@ -14794,7 +14815,7 @@
       <c r="CS51" s="1"/>
       <c r="CT51" s="1"/>
     </row>
-    <row r="52" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:98" ht="19" thickBot="1">
       <c r="A52">
         <v>50</v>
       </c>
@@ -15074,7 +15095,7 @@
       <c r="CS52" s="1"/>
       <c r="CT52" s="1"/>
     </row>
-    <row r="53" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:98" ht="19" thickBot="1">
       <c r="A53">
         <v>51</v>
       </c>
@@ -15354,7 +15375,7 @@
       <c r="CS53" s="1"/>
       <c r="CT53" s="1"/>
     </row>
-    <row r="54" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:98" ht="19" thickBot="1">
       <c r="A54">
         <v>52</v>
       </c>
@@ -15634,7 +15655,7 @@
       <c r="CS54" s="1"/>
       <c r="CT54" s="1"/>
     </row>
-    <row r="55" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:98" ht="19" thickBot="1">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -15733,7 +15754,7 @@
       <c r="CS55" s="1"/>
       <c r="CT55" s="1"/>
     </row>
-    <row r="56" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:98" ht="19" thickBot="1">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -15832,7 +15853,7 @@
       <c r="CS56" s="1"/>
       <c r="CT56" s="1"/>
     </row>
-    <row r="57" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:98" ht="19" thickBot="1">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -15931,7 +15952,7 @@
       <c r="CS57" s="1"/>
       <c r="CT57" s="1"/>
     </row>
-    <row r="58" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:98" ht="19" thickBot="1">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -16030,7 +16051,7 @@
       <c r="CS58" s="1"/>
       <c r="CT58" s="1"/>
     </row>
-    <row r="59" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:98" ht="19" thickBot="1">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -16129,7 +16150,7 @@
       <c r="CS59" s="1"/>
       <c r="CT59" s="1"/>
     </row>
-    <row r="60" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:98" ht="19" thickBot="1">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -16228,7 +16249,7 @@
       <c r="CS60" s="1"/>
       <c r="CT60" s="1"/>
     </row>
-    <row r="61" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:98" ht="19" thickBot="1">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -16327,7 +16348,7 @@
       <c r="CS61" s="1"/>
       <c r="CT61" s="1"/>
     </row>
-    <row r="62" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:98" ht="19" thickBot="1">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -16426,7 +16447,7 @@
       <c r="CS62" s="1"/>
       <c r="CT62" s="1"/>
     </row>
-    <row r="63" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:98" ht="19" thickBot="1">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -16525,7 +16546,7 @@
       <c r="CS63" s="1"/>
       <c r="CT63" s="1"/>
     </row>
-    <row r="64" spans="1:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:98" ht="19" thickBot="1">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -16624,7 +16645,7 @@
       <c r="CS64" s="1"/>
       <c r="CT64" s="1"/>
     </row>
-    <row r="65" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:98" ht="19" thickBot="1">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -16723,7 +16744,7 @@
       <c r="CS65" s="1"/>
       <c r="CT65" s="1"/>
     </row>
-    <row r="66" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:98" ht="19" thickBot="1">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -16822,7 +16843,7 @@
       <c r="CS66" s="1"/>
       <c r="CT66" s="1"/>
     </row>
-    <row r="67" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:98" ht="19" thickBot="1">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -16921,7 +16942,7 @@
       <c r="CS67" s="1"/>
       <c r="CT67" s="1"/>
     </row>
-    <row r="68" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:98" ht="19" thickBot="1">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -17020,7 +17041,7 @@
       <c r="CS68" s="1"/>
       <c r="CT68" s="1"/>
     </row>
-    <row r="69" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:98" ht="19" thickBot="1">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -17119,7 +17140,7 @@
       <c r="CS69" s="1"/>
       <c r="CT69" s="1"/>
     </row>
-    <row r="70" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:98" ht="19" thickBot="1">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -17218,7 +17239,7 @@
       <c r="CS70" s="1"/>
       <c r="CT70" s="1"/>
     </row>
-    <row r="71" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:98" ht="19" thickBot="1">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -17317,7 +17338,7 @@
       <c r="CS71" s="1"/>
       <c r="CT71" s="1"/>
     </row>
-    <row r="72" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:98" ht="19" thickBot="1">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -17416,7 +17437,7 @@
       <c r="CS72" s="1"/>
       <c r="CT72" s="1"/>
     </row>
-    <row r="73" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:98" ht="19" thickBot="1">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -17515,7 +17536,7 @@
       <c r="CS73" s="1"/>
       <c r="CT73" s="1"/>
     </row>
-    <row r="74" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:98" ht="19" thickBot="1">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -17614,7 +17635,7 @@
       <c r="CS74" s="1"/>
       <c r="CT74" s="1"/>
     </row>
-    <row r="75" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:98" ht="19" thickBot="1">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -17713,7 +17734,7 @@
       <c r="CS75" s="1"/>
       <c r="CT75" s="1"/>
     </row>
-    <row r="76" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:98" ht="19" thickBot="1">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -17812,7 +17833,7 @@
       <c r="CS76" s="1"/>
       <c r="CT76" s="1"/>
     </row>
-    <row r="77" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:98" ht="19" thickBot="1">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -17911,7 +17932,7 @@
       <c r="CS77" s="1"/>
       <c r="CT77" s="1"/>
     </row>
-    <row r="78" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:98" ht="19" thickBot="1">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -18010,7 +18031,7 @@
       <c r="CS78" s="1"/>
       <c r="CT78" s="1"/>
     </row>
-    <row r="79" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:98" ht="19" thickBot="1">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -18109,7 +18130,7 @@
       <c r="CS79" s="1"/>
       <c r="CT79" s="1"/>
     </row>
-    <row r="80" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:98" ht="19" thickBot="1">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -18208,7 +18229,7 @@
       <c r="CS80" s="1"/>
       <c r="CT80" s="1"/>
     </row>
-    <row r="81" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:98" ht="19" thickBot="1">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -18307,7 +18328,7 @@
       <c r="CS81" s="1"/>
       <c r="CT81" s="1"/>
     </row>
-    <row r="82" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:98" ht="19" thickBot="1">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -18406,7 +18427,7 @@
       <c r="CS82" s="1"/>
       <c r="CT82" s="1"/>
     </row>
-    <row r="83" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:98" ht="19" thickBot="1">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -18505,7 +18526,7 @@
       <c r="CS83" s="1"/>
       <c r="CT83" s="1"/>
     </row>
-    <row r="84" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:98" ht="19" thickBot="1">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -18604,7 +18625,7 @@
       <c r="CS84" s="1"/>
       <c r="CT84" s="1"/>
     </row>
-    <row r="85" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:98" ht="19" thickBot="1">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -18703,7 +18724,7 @@
       <c r="CS85" s="1"/>
       <c r="CT85" s="1"/>
     </row>
-    <row r="86" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:98" ht="19" thickBot="1">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -18802,7 +18823,7 @@
       <c r="CS86" s="1"/>
       <c r="CT86" s="1"/>
     </row>
-    <row r="87" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:98" ht="19" thickBot="1">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -18901,7 +18922,7 @@
       <c r="CS87" s="1"/>
       <c r="CT87" s="1"/>
     </row>
-    <row r="88" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:98" ht="19" thickBot="1">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -19000,7 +19021,7 @@
       <c r="CS88" s="1"/>
       <c r="CT88" s="1"/>
     </row>
-    <row r="89" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:98" ht="19" thickBot="1">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -19099,7 +19120,7 @@
       <c r="CS89" s="1"/>
       <c r="CT89" s="1"/>
     </row>
-    <row r="90" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:98" ht="19" thickBot="1">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -19198,7 +19219,7 @@
       <c r="CS90" s="1"/>
       <c r="CT90" s="1"/>
     </row>
-    <row r="91" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:98" ht="19" thickBot="1">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -19297,7 +19318,7 @@
       <c r="CS91" s="1"/>
       <c r="CT91" s="1"/>
     </row>
-    <row r="92" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:98" ht="19" thickBot="1">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -19396,7 +19417,7 @@
       <c r="CS92" s="1"/>
       <c r="CT92" s="1"/>
     </row>
-    <row r="93" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:98" ht="19" thickBot="1">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -19495,7 +19516,7 @@
       <c r="CS93" s="1"/>
       <c r="CT93" s="1"/>
     </row>
-    <row r="94" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:98" ht="19" thickBot="1">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -19594,7 +19615,7 @@
       <c r="CS94" s="1"/>
       <c r="CT94" s="1"/>
     </row>
-    <row r="95" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:98" ht="19" thickBot="1">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -19693,7 +19714,7 @@
       <c r="CS95" s="1"/>
       <c r="CT95" s="1"/>
     </row>
-    <row r="96" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:98" ht="19" thickBot="1">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -19792,7 +19813,7 @@
       <c r="CS96" s="1"/>
       <c r="CT96" s="1"/>
     </row>
-    <row r="97" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:98" ht="19" thickBot="1">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -19891,7 +19912,7 @@
       <c r="CS97" s="1"/>
       <c r="CT97" s="1"/>
     </row>
-    <row r="98" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:98" ht="19" thickBot="1">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -19990,7 +20011,7 @@
       <c r="CS98" s="1"/>
       <c r="CT98" s="1"/>
     </row>
-    <row r="99" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:98" ht="19" thickBot="1">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -20089,7 +20110,7 @@
       <c r="CS99" s="1"/>
       <c r="CT99" s="1"/>
     </row>
-    <row r="100" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:98" ht="19" thickBot="1">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -20188,7 +20209,7 @@
       <c r="CS100" s="1"/>
       <c r="CT100" s="1"/>
     </row>
-    <row r="101" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:98" ht="19" thickBot="1">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -20287,7 +20308,7 @@
       <c r="CS101" s="1"/>
       <c r="CT101" s="1"/>
     </row>
-    <row r="102" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:98" ht="19" thickBot="1">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -20386,7 +20407,7 @@
       <c r="CS102" s="1"/>
       <c r="CT102" s="1"/>
     </row>
-    <row r="103" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:98" ht="19" thickBot="1">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -20485,7 +20506,7 @@
       <c r="CS103" s="1"/>
       <c r="CT103" s="1"/>
     </row>
-    <row r="104" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:98" ht="19" thickBot="1">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -20584,7 +20605,7 @@
       <c r="CS104" s="1"/>
       <c r="CT104" s="1"/>
     </row>
-    <row r="105" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:98" ht="19" thickBot="1">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -20683,7 +20704,7 @@
       <c r="CS105" s="1"/>
       <c r="CT105" s="1"/>
     </row>
-    <row r="106" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:98" ht="19" thickBot="1">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -20782,7 +20803,7 @@
       <c r="CS106" s="1"/>
       <c r="CT106" s="1"/>
     </row>
-    <row r="107" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:98" ht="19" thickBot="1">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -20881,7 +20902,7 @@
       <c r="CS107" s="1"/>
       <c r="CT107" s="1"/>
     </row>
-    <row r="108" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:98" ht="19" thickBot="1">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -20980,7 +21001,7 @@
       <c r="CS108" s="1"/>
       <c r="CT108" s="1"/>
     </row>
-    <row r="109" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:98" ht="19" thickBot="1">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -21079,7 +21100,7 @@
       <c r="CS109" s="1"/>
       <c r="CT109" s="1"/>
     </row>
-    <row r="110" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:98" ht="19" thickBot="1">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -21178,7 +21199,7 @@
       <c r="CS110" s="1"/>
       <c r="CT110" s="1"/>
     </row>
-    <row r="111" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:98" ht="19" thickBot="1">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -21277,7 +21298,7 @@
       <c r="CS111" s="1"/>
       <c r="CT111" s="1"/>
     </row>
-    <row r="112" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:98" ht="19" thickBot="1">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -21376,7 +21397,7 @@
       <c r="CS112" s="1"/>
       <c r="CT112" s="1"/>
     </row>
-    <row r="113" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:98" ht="19" thickBot="1">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -21475,7 +21496,7 @@
       <c r="CS113" s="1"/>
       <c r="CT113" s="1"/>
     </row>
-    <row r="114" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:98" ht="19" thickBot="1">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -21574,7 +21595,7 @@
       <c r="CS114" s="1"/>
       <c r="CT114" s="1"/>
     </row>
-    <row r="115" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:98" ht="19" thickBot="1">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -21673,7 +21694,7 @@
       <c r="CS115" s="1"/>
       <c r="CT115" s="1"/>
     </row>
-    <row r="116" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:98" ht="19" thickBot="1">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -21772,7 +21793,7 @@
       <c r="CS116" s="1"/>
       <c r="CT116" s="1"/>
     </row>
-    <row r="117" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:98" ht="19" thickBot="1">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -21871,7 +21892,7 @@
       <c r="CS117" s="1"/>
       <c r="CT117" s="1"/>
     </row>
-    <row r="118" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:98" ht="19" thickBot="1">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -21970,7 +21991,7 @@
       <c r="CS118" s="1"/>
       <c r="CT118" s="1"/>
     </row>
-    <row r="119" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:98" ht="19" thickBot="1">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -22069,7 +22090,7 @@
       <c r="CS119" s="1"/>
       <c r="CT119" s="1"/>
     </row>
-    <row r="120" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:98" ht="19" thickBot="1">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -22168,7 +22189,7 @@
       <c r="CS120" s="1"/>
       <c r="CT120" s="1"/>
     </row>
-    <row r="121" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:98" ht="19" thickBot="1">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -22267,7 +22288,7 @@
       <c r="CS121" s="1"/>
       <c r="CT121" s="1"/>
     </row>
-    <row r="122" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:98" ht="19" thickBot="1">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -22366,7 +22387,7 @@
       <c r="CS122" s="1"/>
       <c r="CT122" s="1"/>
     </row>
-    <row r="123" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:98" ht="19" thickBot="1">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -22465,7 +22486,7 @@
       <c r="CS123" s="1"/>
       <c r="CT123" s="1"/>
     </row>
-    <row r="124" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:98" ht="19" thickBot="1">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -22564,7 +22585,7 @@
       <c r="CS124" s="1"/>
       <c r="CT124" s="1"/>
     </row>
-    <row r="125" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:98" ht="19" thickBot="1">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -22663,7 +22684,7 @@
       <c r="CS125" s="1"/>
       <c r="CT125" s="1"/>
     </row>
-    <row r="126" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:98" ht="19" thickBot="1">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -22762,7 +22783,7 @@
       <c r="CS126" s="1"/>
       <c r="CT126" s="1"/>
     </row>
-    <row r="127" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:98" ht="19" thickBot="1">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -22861,7 +22882,7 @@
       <c r="CS127" s="1"/>
       <c r="CT127" s="1"/>
     </row>
-    <row r="128" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:98" ht="19" thickBot="1">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -22960,7 +22981,7 @@
       <c r="CS128" s="1"/>
       <c r="CT128" s="1"/>
     </row>
-    <row r="129" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:98" ht="19" thickBot="1">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -23059,7 +23080,7 @@
       <c r="CS129" s="1"/>
       <c r="CT129" s="1"/>
     </row>
-    <row r="130" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:98" ht="19" thickBot="1">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -23158,7 +23179,7 @@
       <c r="CS130" s="1"/>
       <c r="CT130" s="1"/>
     </row>
-    <row r="131" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:98" ht="19" thickBot="1">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -23257,7 +23278,7 @@
       <c r="CS131" s="1"/>
       <c r="CT131" s="1"/>
     </row>
-    <row r="132" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:98" ht="19" thickBot="1">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -23356,7 +23377,7 @@
       <c r="CS132" s="1"/>
       <c r="CT132" s="1"/>
     </row>
-    <row r="133" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:98" ht="19" thickBot="1">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -23455,7 +23476,7 @@
       <c r="CS133" s="1"/>
       <c r="CT133" s="1"/>
     </row>
-    <row r="134" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:98" ht="19" thickBot="1">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -23554,7 +23575,7 @@
       <c r="CS134" s="1"/>
       <c r="CT134" s="1"/>
     </row>
-    <row r="135" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:98" ht="19" thickBot="1">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -23653,7 +23674,7 @@
       <c r="CS135" s="1"/>
       <c r="CT135" s="1"/>
     </row>
-    <row r="136" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:98" ht="19" thickBot="1">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -23752,7 +23773,7 @@
       <c r="CS136" s="1"/>
       <c r="CT136" s="1"/>
     </row>
-    <row r="137" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:98" ht="19" thickBot="1">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -23851,7 +23872,7 @@
       <c r="CS137" s="1"/>
       <c r="CT137" s="1"/>
     </row>
-    <row r="138" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:98" ht="19" thickBot="1">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -23950,7 +23971,7 @@
       <c r="CS138" s="1"/>
       <c r="CT138" s="1"/>
     </row>
-    <row r="139" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:98" ht="19" thickBot="1">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -24049,7 +24070,7 @@
       <c r="CS139" s="1"/>
       <c r="CT139" s="1"/>
     </row>
-    <row r="140" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:98" ht="19" thickBot="1">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -24148,7 +24169,7 @@
       <c r="CS140" s="1"/>
       <c r="CT140" s="1"/>
     </row>
-    <row r="141" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:98" ht="19" thickBot="1">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -24247,7 +24268,7 @@
       <c r="CS141" s="1"/>
       <c r="CT141" s="1"/>
     </row>
-    <row r="142" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:98" ht="19" thickBot="1">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -24346,7 +24367,7 @@
       <c r="CS142" s="1"/>
       <c r="CT142" s="1"/>
     </row>
-    <row r="143" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:98" ht="19" thickBot="1">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -24445,7 +24466,7 @@
       <c r="CS143" s="1"/>
       <c r="CT143" s="1"/>
     </row>
-    <row r="144" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:98" ht="19" thickBot="1">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -24544,7 +24565,7 @@
       <c r="CS144" s="1"/>
       <c r="CT144" s="1"/>
     </row>
-    <row r="145" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:98" ht="19" thickBot="1">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -24643,7 +24664,7 @@
       <c r="CS145" s="1"/>
       <c r="CT145" s="1"/>
     </row>
-    <row r="146" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:98" ht="19" thickBot="1">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -24742,7 +24763,7 @@
       <c r="CS146" s="1"/>
       <c r="CT146" s="1"/>
     </row>
-    <row r="147" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:98" ht="19" thickBot="1">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -24841,7 +24862,7 @@
       <c r="CS147" s="1"/>
       <c r="CT147" s="1"/>
     </row>
-    <row r="148" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:98" ht="19" thickBot="1">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -24940,7 +24961,7 @@
       <c r="CS148" s="1"/>
       <c r="CT148" s="1"/>
     </row>
-    <row r="149" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:98" ht="19" thickBot="1">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -25039,7 +25060,7 @@
       <c r="CS149" s="1"/>
       <c r="CT149" s="1"/>
     </row>
-    <row r="150" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:98" ht="19" thickBot="1">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -25138,7 +25159,7 @@
       <c r="CS150" s="1"/>
       <c r="CT150" s="1"/>
     </row>
-    <row r="151" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:98" ht="19" thickBot="1">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -25237,7 +25258,7 @@
       <c r="CS151" s="1"/>
       <c r="CT151" s="1"/>
     </row>
-    <row r="152" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:98" ht="19" thickBot="1">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -25336,7 +25357,7 @@
       <c r="CS152" s="1"/>
       <c r="CT152" s="1"/>
     </row>
-    <row r="153" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:98" ht="19" thickBot="1">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -25435,7 +25456,7 @@
       <c r="CS153" s="1"/>
       <c r="CT153" s="1"/>
     </row>
-    <row r="154" spans="2:98" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:98" ht="19" thickBot="1">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
